--- a/langchain/docs/lumen/docs/lumen_sitemapXML_2024-06-20.xlsx
+++ b/langchain/docs/lumen/docs/lumen_sitemapXML_2024-06-20.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="120" windowWidth="18180" windowHeight="7840"/>
+    <workbookView xWindow="80" yWindow="120" windowWidth="18180" windowHeight="7840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="lumen_urls" sheetId="1" r:id="rId1"/>
+    <sheet name="lumen_urls_youtube" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="385">
   <si>
     <t>URL</t>
   </si>
@@ -1051,6 +1051,126 @@
   </si>
   <si>
     <t>2024-02-15 17:29 +00:00</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w48uv-h9M0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1e_XRLQvjmE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6xgYtUvPpX0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9pJWBnDKyTA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=abUT6U9cXrI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ApSg1Zqc5LU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BeDrtW-menM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CoukXsJKjv8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DhtuaIazLIw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dk96_v9_6qs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f3DXdTKNxlk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gqmjNdJ7VR4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gV_lqzoUekI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H4GfHJCOcAk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h6VgVfYl9R0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HfdIB-5bP-0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IRHtQQVethk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j1QovDcF0ww</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JHNzfnt9xZM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JOlfZ6PBzAc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jSah_BdQMdg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KOpBVoqeeTE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lGENWFm5M5s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lq7LmBjatMA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lxILkAXDi9s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nb_PLkwmTl8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdO5a0OG7_w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pP_GoxPywkY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=psh8iOBhjTM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RIoA_bIo8hE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tNugl0Z3m7U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tzCkP5zMPDc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U75Hjr90PR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UcZrM2L1h8w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-UMk6KKcT_c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UmMYehZNlc0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vqYF4eLTaNw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YEkxyL02tSs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yVF2oczrJ8w</t>
+  </si>
+  <si>
+    <t>Links from "https://www.youtube.com/@lumenoptometric/videos"</t>
   </si>
 </sst>
 </file>
@@ -1391,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:C179"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3378,12 +3498,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
